--- a/PFOA inhalation Rat/Validation/Raw_data/Kemper_2003/Kemper_Serum_female_oral_25_mg_per_kg.xlsx
+++ b/PFOA inhalation Rat/Validation/Raw_data/Kemper_2003/Kemper_Serum_female_oral_25_mg_per_kg.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Validation\Raw_data\Kemper 2003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Validation\Raw_data\Kemper_2003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD36C80-89D5-4A3D-BD1C-4815EF88FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,22 +447,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="30.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -514,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -531,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -548,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -565,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -582,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -599,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -607,7 +606,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>250</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="1">
         <v>25</v>
@@ -616,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -633,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -650,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -667,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -684,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -707,16 +706,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE6F982-D66C-41DA-8B31-C875CC83570A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +723,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
